--- a/src/main/resources/sample/Transkript-baru.xlsx
+++ b/src/main/resources/sample/Transkript-baru.xlsx
@@ -339,16 +339,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1377720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:colOff>982080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -362,8 +362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3444840" y="0"/>
-          <a:ext cx="1348920" cy="950400"/>
+          <a:off x="3541680" y="43560"/>
+          <a:ext cx="1347840" cy="949320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -386,14 +386,14 @@
   <dimension ref="B1:L95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.31"/>
@@ -617,20 +617,10 @@
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="5">
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="I24:J24"/>
   </mergeCells>
